--- a/beispieldatensatz.xlsx
+++ b/beispieldatensatz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\hsh-wissenschaftliches-arbeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D3549-8AD9-4182-8210-E317EB8435A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA3DC7D-C755-4A6A-97B0-59E694D79E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="197" formatCode="0.00000000000000000000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -371,18 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G1" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -396,7 +401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -410,7 +415,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -424,7 +429,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -438,7 +443,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -452,7 +457,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -465,8 +470,9 @@
       <c r="D6">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -480,7 +486,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -494,7 +500,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -508,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -522,7 +528,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -536,7 +542,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -550,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -564,7 +570,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -578,7 +584,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -592,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
